--- a/mcd.xlsx
+++ b/mcd.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>name</t>
   </si>
@@ -134,12 +134,6 @@
   </si>
   <si>
     <t>2 bulan lalu</t>
-  </si>
-  <si>
-    <t>Kutu Patran, Sinduadi, Kec. Mlati, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55284</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/McDonald's/@-7.7832862,110.2995852,13z/data=!4m10!1m2!2m1!1sMcDonald's+Daerah+Istimewa+Yogyakarta!3m6!1s0x2e7a59fedbdb7a61:0xf7c242a4281116b7!8m2!3d-7.753173!4d110.360832!15sCiVNY0RvbmFsZCdzIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhIgOIAQFaJyIlbWNkb25hbGQncyBkYWVyYWggaXN0aW1ld2EgeW9neWFrYXJ0YZIBFGZhc3RfZm9vZF9yZXN0YXVyYW504AEA!16s%2Fg%2F11j0qmhhk0?entry=ttu&amp;g_ep=EgoyMDI1MDIxNy4wIKXMDSoASAFQAw%3D%3D</t>
   </si>
   <si>
     <t>McDonald's Sleman City Hall</t>
@@ -182,7 +176,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +194,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -241,14 +243,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -554,17 +555,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
     <col min="9" max="9" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -625,7 +626,7 @@
       <c r="H2" t="b">
         <v>0</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J2" t="s">
@@ -657,7 +658,7 @@
       <c r="H3" t="b">
         <v>0</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J3" t="s">
@@ -689,7 +690,7 @@
       <c r="H4" t="b">
         <v>0</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J4" t="s">
@@ -718,7 +719,7 @@
       <c r="H5" t="b">
         <v>0</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>28</v>
       </c>
       <c r="J5" t="s">
@@ -747,7 +748,7 @@
       <c r="H6" t="b">
         <v>0</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="3" t="s">
         <v>32</v>
       </c>
       <c r="J6" t="s">
@@ -776,63 +777,63 @@
       <c r="H7" t="b">
         <v>0</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="3" t="s">
         <v>35</v>
       </c>
       <c r="J7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>-7.7827700000000002</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>110.401319</v>
       </c>
-      <c r="H8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4" t="s">
+      <c r="H8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E9">
-        <v>4.2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F9">
-        <v>-7.7531730000000003</v>
+        <v>-7.7201089999999999</v>
       </c>
       <c r="G9">
-        <v>110.360832</v>
+        <v>110.36197900000001</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>41</v>
+      <c r="I9" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="J9" t="s">
         <v>15</v>
@@ -840,25 +841,31 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
       </c>
       <c r="E10">
-        <v>4.5999999999999996</v>
+        <v>3.5</v>
       </c>
       <c r="F10">
-        <v>-7.7201089999999999</v>
+        <v>-7.7933000000000003</v>
       </c>
       <c r="G10">
-        <v>110.36197900000001</v>
+        <v>110.366088</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>44</v>
+      <c r="I10" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="J10" t="s">
         <v>15</v>
@@ -866,63 +873,31 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E11">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F11">
-        <v>-7.7933000000000003</v>
+        <v>-7.7825990000000003</v>
       </c>
       <c r="G11">
-        <v>110.366088</v>
+        <v>110.37913399999999</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>48</v>
+      <c r="I11" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="J11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" t="s">
         <v>51</v>
-      </c>
-      <c r="E12">
-        <v>4.5</v>
-      </c>
-      <c r="F12">
-        <v>-7.7825990000000003</v>
-      </c>
-      <c r="G12">
-        <v>110.37913399999999</v>
-      </c>
-      <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J12" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -933,10 +908,8 @@
     <hyperlink ref="I5" display="https://www.google.com/maps/place/McDonald's+Kaliurang,+Yogyakarta/@-7.7832862,110.2995852,13z/data=!4m10!1m2!2m1!1sMcDonald's+Daerah+Istimewa+Yogyakarta!3m6!1s0x2e7a59ac8fb5fe51:0xa3bb46f544ae1af0!8m2!3d-7.7625093!4d110.3796601!15sCiVNY0RvbmFsZCdzIERhZXJ"/>
     <hyperlink ref="I6" display="https://www.google.com/maps/place/McDonald's+Ambarukmo/@-7.7832862,110.2995852,13z/data=!4m10!1m2!2m1!1sMcDonald's+Daerah+Istimewa+Yogyakarta!3m6!1s0x2e7a59e8bcd6d537:0x1e81dde1dec56d3d!8m2!3d-7.7829892!4d110.4070368!15sCiVNY0RvbmFsZCdzIERhZXJhaCBJc3RpbWV"/>
     <hyperlink ref="I7" display="https://www.google.com/maps/place/McDonald's+Godean/@-7.7832862,110.2995852,13z/data=!4m10!1m2!2m1!1sMcDonald's+Daerah+Istimewa+Yogyakarta!3m6!1s0x2e7a59044ec63e11:0x83c93c7833acc208!8m2!3d-7.779165!4d110.3422205!15sCiVNY0RvbmFsZCdzIERhZXJhaCBJc3RpbWV3YSB"/>
-    <hyperlink ref="I9" display="https://www.google.com/maps/place/McDonald's/@-7.7832862,110.2995852,13z/data=!4m10!1m2!2m1!1sMcDonald's+Daerah+Istimewa+Yogyakarta!3m6!1s0x2e7a59fedbdb7a61:0xf7c242a4281116b7!8m2!3d-7.753173!4d110.360832!15sCiVNY0RvbmFsZCdzIERhZXJhaCBJc3RpbWV3YSBZb2d5YWt"/>
-    <hyperlink ref="I10" display="https://www.google.com/maps/place/McDonald's+Sleman+City+Hall/@-7.7201094,110.2898813,13z/data=!4m10!1m2!2m1!1sMcDonald's+Daerah+Istimewa+Yogyakarta!3m6!1s0x2e7a5943af3b260b:0x850fa8d12427a2e4!8m2!3d-7.7201094!4d110.3619791!15sCiVNY0RvbmFsZCdzIERhZXJhaCBJ"/>
-    <hyperlink ref="I11" display="https://www.google.com/maps/place/McCafe+Restaurant/@-7.7933004,110.2939904,13z/data=!4m10!1m2!2m1!1sMcDonald's+Daerah+Istimewa+Yogyakarta!3m6!1s0x2e7a58263b0d1bcf:0x159d3fe9fe1cac79!8m2!3d-7.7933004!4d110.3660882!15sCiVNY0RvbmFsZCdzIERhZXJhaCBJc3RpbWV3YS"/>
-    <hyperlink ref="I12" display="https://www.google.com/maps/place/McDonald's+Kiosk+Ice+Cream+Galeria+Mall/@-7.7933004,110.2939904,13z/data=!4m10!1m2!2m1!1sMcDonald's+Daerah+Istimewa+Yogyakarta!3m6!1s0x2e7a59ccd56ed101:0xc2d68758fd765b60!8m2!3d-7.7825987!4d110.3791337!15sCiVNY0RvbmFsZCdz"/>
+    <hyperlink ref="I10" display="https://www.google.com/maps/place/McCafe+Restaurant/@-7.7933004,110.2939904,13z/data=!4m10!1m2!2m1!1sMcDonald's+Daerah+Istimewa+Yogyakarta!3m6!1s0x2e7a58263b0d1bcf:0x159d3fe9fe1cac79!8m2!3d-7.7933004!4d110.3660882!15sCiVNY0RvbmFsZCdzIERhZXJhaCBJc3RpbWV3YS"/>
+    <hyperlink ref="I11" display="https://www.google.com/maps/place/McDonald's+Kiosk+Ice+Cream+Galeria+Mall/@-7.7933004,110.2939904,13z/data=!4m10!1m2!2m1!1sMcDonald's+Daerah+Istimewa+Yogyakarta!3m6!1s0x2e7a59ccd56ed101:0xc2d68758fd765b60!8m2!3d-7.7825987!4d110.3791337!15sCiVNY0RvbmFsZCdz"/>
     <hyperlink ref="I8" display="https://www.google.com/maps/place/McDonald's+Ambarrukmo+Plaza/@-7.7832862,110.2995852,13z/data=!4m10!1m2!2m1!1sMcDonald's+Daerah+Istimewa+Yogyakarta!3m6!1s0x2e7a59c2bde92245:0x96451b12a5860277!8m2!3d-7.78277!4d110.401319!15sCiVNY0RvbmFsZCdzIERhZXJhaCBJc3R"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
